--- a/src/shop.xlsx
+++ b/src/shop.xlsx
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1057,7 +1057,7 @@
         <v>500</v>
       </c>
       <c r="I4">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -1072,7 +1072,7 @@
         <v>1000</v>
       </c>
       <c r="N4">
-        <v>1003</v>
+        <v>2003</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -1087,7 +1087,7 @@
         <v>1500</v>
       </c>
       <c r="S4">
-        <v>1004</v>
+        <v>2004</v>
       </c>
       <c r="T4">
         <v>100</v>
@@ -1102,7 +1102,7 @@
         <v>2000</v>
       </c>
       <c r="X4">
-        <v>1005</v>
+        <v>2005</v>
       </c>
       <c r="Y4">
         <v>100</v>
@@ -1117,7 +1117,7 @@
         <v>2500</v>
       </c>
       <c r="AC4">
-        <v>1006</v>
+        <v>2006</v>
       </c>
       <c r="AD4">
         <v>100</v>
@@ -3577,16 +3577,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3598,14 +3596,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3616,13 +3616,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3634,13 +3634,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/shop.xlsx
+++ b/src/shop.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB86AD13-E854-42B6-8268-AA0C255FA71E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19056" windowHeight="12876"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -288,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,19 +617,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="11" customWidth="1"/>
     <col min="11" max="13" width="11" customWidth="1"/>
     <col min="16" max="18" width="11" customWidth="1"/>
@@ -638,7 +639,7 @@
     <col min="36" max="38" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -900,7 +901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2647,118 +2648,159 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10001</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>13888</v>
+      </c>
+      <c r="I20">
+        <v>10002</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
     </row>
   </sheetData>
@@ -2769,16 +2811,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2790,7 +2832,7 @@
         <v>风暴剑</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2802,7 +2844,7 @@
         <v>风暴盔</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2814,7 +2856,7 @@
         <v>风暴战甲</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2826,7 +2868,7 @@
         <v>风暴裤</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2838,7 +2880,7 @@
         <v>风暴战靴</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2850,7 +2892,7 @@
         <v>风暴之戒</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2904,7 @@
         <v>龙骨剑</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2874,7 +2916,7 @@
         <v>龙骨盔</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2886,7 +2928,7 @@
         <v>龙骨战甲</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2898,7 +2940,7 @@
         <v>龙骨裤</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2910,7 +2952,7 @@
         <v>龙骨战靴</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2922,7 +2964,7 @@
         <v>龙骨之戒</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2934,7 +2976,7 @@
         <v>丛云剑</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2946,7 +2988,7 @@
         <v>丛云盔</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2958,7 +3000,7 @@
         <v>丛云战甲</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2970,7 +3012,7 @@
         <v>丛云裤</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2982,7 +3024,7 @@
         <v>丛云战靴</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +3036,7 @@
         <v>丛云之戒</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3006,7 +3048,7 @@
         <v>勇士剑</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3018,7 +3060,7 @@
         <v>勇士盔</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3030,7 +3072,7 @@
         <v>勇士战甲</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -3042,7 +3084,7 @@
         <v>勇士裤</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3054,7 +3096,7 @@
         <v>勇士战靴</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3066,7 +3108,7 @@
         <v>勇士之戒</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +3120,7 @@
         <v>圣骑剑</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3090,7 +3132,7 @@
         <v>圣骑盔</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3102,7 +3144,7 @@
         <v>圣骑战甲</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +3156,7 @@
         <v>圣骑裤</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3126,7 +3168,7 @@
         <v>圣骑战靴</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3138,7 +3180,7 @@
         <v>圣骑之戒</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3150,7 +3192,7 @@
         <v>吟游剑</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3162,7 +3204,7 @@
         <v>吟游盔</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3174,7 +3216,7 @@
         <v>吟游战甲</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3186,7 +3228,7 @@
         <v>吟游裤</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3198,7 +3240,7 @@
         <v>吟游战靴</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3210,7 +3252,7 @@
         <v>吟游之戒</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3264,7 @@
         <v>狩魂剑</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -3234,7 +3276,7 @@
         <v>狩魂盔</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -3246,7 +3288,7 @@
         <v>狩魂战甲</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3258,7 +3300,7 @@
         <v>狩魂裤</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3270,7 +3312,7 @@
         <v>狩魂战靴</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -3282,7 +3324,7 @@
         <v>狩魂之戒</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -3294,7 +3336,7 @@
         <v>炎魔剑</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -3306,7 +3348,7 @@
         <v>炎魔盔</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -3318,7 +3360,7 @@
         <v>炎魔战甲</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -3330,7 +3372,7 @@
         <v>炎魔裤</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -3342,7 +3384,7 @@
         <v>炎魔战靴</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3354,7 +3396,7 @@
         <v>炎魔之戒</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3366,7 +3408,7 @@
         <v>血怒剑</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3378,7 +3420,7 @@
         <v>血怒盔</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3390,7 +3432,7 @@
         <v>血怒战甲</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3402,7 +3444,7 @@
         <v>血怒裤</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3414,7 +3456,7 @@
         <v>血怒战靴</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3426,7 +3468,7 @@
         <v>血怒之戒</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -3438,7 +3480,7 @@
         <v>死神剑</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -3450,7 +3492,7 @@
         <v>死神盔</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
@@ -3462,7 +3504,7 @@
         <v>死神战甲</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -3474,7 +3516,7 @@
         <v>死神裤</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -3486,7 +3528,7 @@
         <v>死神战靴</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
@@ -3498,7 +3540,7 @@
         <v>死神之戒</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3510,7 +3552,7 @@
         <v>王者剑</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3522,7 +3564,7 @@
         <v>王者盔</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3534,7 +3576,7 @@
         <v>王者战甲</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3546,7 +3588,7 @@
         <v>王者裤</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3558,7 +3600,7 @@
         <v>王者战靴</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3573,21 +3615,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -3595,58 +3627,69 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>